--- a/PlateBridge/静载试验集中力荷载.xlsx
+++ b/PlateBridge/静载试验集中力荷载.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vsProjects\PlateBridge\PlateBridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C720C20-8AB2-4A59-9EF1-E8438C590A2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5DE9216-9C2D-4B3F-A03F-9357F7E3D19A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27495" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>x</t>
   </si>
@@ -397,14 +398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251E7206-9CE1-4678-B508-9C1B8473C484}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -441,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="C2">
         <v>1.5</v>
@@ -472,7 +473,7 @@
       </c>
       <c r="B3">
         <f>B2</f>
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="C3">
         <f>C2+1.9</f>
@@ -504,7 +505,7 @@
       </c>
       <c r="B4">
         <f>B2-1.4</f>
-        <v>4.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="C4">
         <f>C2</f>
@@ -536,7 +537,7 @@
       </c>
       <c r="B5">
         <f>B4</f>
-        <v>4.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="C5">
         <f>C3</f>
@@ -552,8 +553,8 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>5.5-1.4-3.8</f>
-        <v>0.29999999999999982</v>
+        <f>B2-1.4-3.8</f>
+        <v>1.7000000000000002</v>
       </c>
       <c r="C6">
         <f>C2</f>
@@ -573,7 +574,7 @@
       </c>
       <c r="B7">
         <f>B6</f>
-        <v>0.29999999999999982</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="C7">
         <f>C3</f>
@@ -593,7 +594,7 @@
       </c>
       <c r="B8">
         <f>B2</f>
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="C8">
         <f>C2+3.3</f>
@@ -610,7 +611,7 @@
       </c>
       <c r="B9">
         <f>B3</f>
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="C9">
         <f>C8+1.4</f>
@@ -627,7 +628,7 @@
       </c>
       <c r="B10">
         <f>B4</f>
-        <v>4.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="C10">
         <f>C8</f>
@@ -642,7 +643,7 @@
       </c>
       <c r="G10" t="str">
         <f>B2&amp;","&amp;C2&amp;",0"</f>
-        <v>5.5,1.5,0</v>
+        <v>6.9,1.5,0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -651,7 +652,7 @@
       </c>
       <c r="B11">
         <f>B10</f>
-        <v>4.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="C11">
         <f>C9</f>
@@ -666,7 +667,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" ref="G11:G21" si="5">B3&amp;","&amp;C3&amp;",0"</f>
-        <v>5.5,3.4,0</v>
+        <v>6.9,3.4,0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -675,7 +676,7 @@
       </c>
       <c r="B12">
         <f>B6</f>
-        <v>0.29999999999999982</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="C12">
         <f>C10</f>
@@ -690,7 +691,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="5"/>
-        <v>4.1,1.5,0</v>
+        <v>5.5,1.5,0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -699,7 +700,7 @@
       </c>
       <c r="B13">
         <f>B7</f>
-        <v>0.29999999999999982</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="C13">
         <f>C11</f>
@@ -714,7 +715,2010 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="5"/>
-        <v>4.1,3.4,0</v>
+        <v>5.5,3.4,0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f>B8</f>
+        <v>6.9</v>
+      </c>
+      <c r="C14">
+        <f>C8+3.3</f>
+        <v>8.1</v>
+      </c>
+      <c r="D14">
+        <f>-1*$G$7*0.4/2</f>
+        <v>-90</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="5"/>
+        <v>1.7,1.5,0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>B9</f>
+        <v>6.9</v>
+      </c>
+      <c r="C15">
+        <f>C14+1.4</f>
+        <v>9.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D17" si="6">-1*$G$7*0.4/2</f>
+        <v>-90</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="5"/>
+        <v>1.7,3.4,0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f>B10</f>
+        <v>5.5</v>
+      </c>
+      <c r="C16">
+        <f>C14</f>
+        <v>8.1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>-90</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="5"/>
+        <v>6.9,4.8,0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f>B16</f>
+        <v>5.5</v>
+      </c>
+      <c r="C17">
+        <f>C15</f>
+        <v>9.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>-90</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="5"/>
+        <v>6.9,6.2,0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f>B12</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="C18">
+        <f>C16</f>
+        <v>8.1</v>
+      </c>
+      <c r="D18">
+        <f>-1*$G$7*0.2/2</f>
+        <v>-45</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="5"/>
+        <v>5.5,4.8,0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f>B13</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="C19">
+        <f>C17</f>
+        <v>9.5</v>
+      </c>
+      <c r="D19">
+        <f>-1*$G$7*0.2/2</f>
+        <v>-45</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="5"/>
+        <v>5.5,6.2,0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="5"/>
+        <v>1.7,4.8,0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="5"/>
+        <v>1.7,6.2,0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ref="G22:G28" si="7">B14&amp;","&amp;C14&amp;",0"</f>
+        <v>6.9,8.1,0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="7"/>
+        <v>6.9,9.5,0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="7"/>
+        <v>5.5,8.1,0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="7"/>
+        <v>5.5,9.5,0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F26">
+        <v>17</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="7"/>
+        <v>1.7,8.1,0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="7"/>
+        <v>1.7,9.5,0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>2.5</v>
+      </c>
+      <c r="D34">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D35">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>13.85</v>
+      </c>
+      <c r="C36">
+        <v>2.5</v>
+      </c>
+      <c r="D36">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>13.85</v>
+      </c>
+      <c r="C37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D37">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>15.2</v>
+      </c>
+      <c r="C38">
+        <v>2.5</v>
+      </c>
+      <c r="D38">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>15.2</v>
+      </c>
+      <c r="C39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D39">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>5.7</v>
+      </c>
+      <c r="D40">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>7.6</v>
+      </c>
+      <c r="D41">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>13.85</v>
+      </c>
+      <c r="C42">
+        <v>5.7</v>
+      </c>
+      <c r="D42">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>13.85</v>
+      </c>
+      <c r="C43">
+        <v>7.6</v>
+      </c>
+      <c r="D43">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>15.2</v>
+      </c>
+      <c r="C44">
+        <v>5.7</v>
+      </c>
+      <c r="D44">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>15.2</v>
+      </c>
+      <c r="C45">
+        <v>7.6</v>
+      </c>
+      <c r="D45">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>0.8</v>
+      </c>
+      <c r="C46">
+        <v>2.5</v>
+      </c>
+      <c r="D46">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>0.8</v>
+      </c>
+      <c r="C47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D47">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C48">
+        <v>2.5</v>
+      </c>
+      <c r="D48">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D49">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>2.5</v>
+      </c>
+      <c r="D50">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D51">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>2.5</v>
+      </c>
+      <c r="D54">
+        <v>-87.5</v>
+      </c>
+      <c r="F54">
+        <v>437.5</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>7.6</v>
+      </c>
+      <c r="K54">
+        <v>-41.89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D55">
+        <v>-87.5</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>5.7</v>
+      </c>
+      <c r="K55">
+        <v>-41.89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>13.85</v>
+      </c>
+      <c r="C56">
+        <v>2.5</v>
+      </c>
+      <c r="D56">
+        <v>-87.5</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>8.65</v>
+      </c>
+      <c r="J56">
+        <v>7.6</v>
+      </c>
+      <c r="K56">
+        <v>-83.78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>13.85</v>
+      </c>
+      <c r="C57">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D57">
+        <v>-87.5</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>8.65</v>
+      </c>
+      <c r="J57">
+        <v>5.7</v>
+      </c>
+      <c r="K57">
+        <v>-83.78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>15.2</v>
+      </c>
+      <c r="C58">
+        <v>2.5</v>
+      </c>
+      <c r="D58">
+        <v>-43.75</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>7.6</v>
+      </c>
+      <c r="K58">
+        <v>-83.78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>15.2</v>
+      </c>
+      <c r="C59">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D59">
+        <v>-43.75</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>5.7</v>
+      </c>
+      <c r="K59">
+        <v>-83.78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>5.7</v>
+      </c>
+      <c r="D60">
+        <v>-87.5</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>2.5</v>
+      </c>
+      <c r="K60">
+        <v>-43.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>7.6</v>
+      </c>
+      <c r="D61">
+        <v>-87.5</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K61">
+        <v>-43.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>13.85</v>
+      </c>
+      <c r="C62">
+        <v>5.7</v>
+      </c>
+      <c r="D62">
+        <v>-87.5</v>
+      </c>
+      <c r="H62">
+        <v>9</v>
+      </c>
+      <c r="I62">
+        <v>8.65</v>
+      </c>
+      <c r="J62">
+        <v>2.5</v>
+      </c>
+      <c r="K62">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>13.85</v>
+      </c>
+      <c r="C63">
+        <v>7.6</v>
+      </c>
+      <c r="D63">
+        <v>-87.5</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>8.65</v>
+      </c>
+      <c r="J63">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K63">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>15.2</v>
+      </c>
+      <c r="C64">
+        <v>5.7</v>
+      </c>
+      <c r="D64">
+        <v>-43.75</v>
+      </c>
+      <c r="H64">
+        <v>11</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>2.5</v>
+      </c>
+      <c r="K64">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>15.2</v>
+      </c>
+      <c r="C65">
+        <v>7.6</v>
+      </c>
+      <c r="D65">
+        <v>-43.75</v>
+      </c>
+      <c r="H65">
+        <v>12</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K65">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>0.8</v>
+      </c>
+      <c r="C66">
+        <v>2.5</v>
+      </c>
+      <c r="D66">
+        <v>-43.75</v>
+      </c>
+      <c r="H66">
+        <v>13</v>
+      </c>
+      <c r="I66">
+        <v>14</v>
+      </c>
+      <c r="J66">
+        <v>2.5</v>
+      </c>
+      <c r="K66">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="B67">
+        <v>0.8</v>
+      </c>
+      <c r="C67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D67">
+        <v>-43.75</v>
+      </c>
+      <c r="H67">
+        <v>14</v>
+      </c>
+      <c r="I67">
+        <v>14</v>
+      </c>
+      <c r="J67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K67">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C68">
+        <v>2.5</v>
+      </c>
+      <c r="D68">
+        <v>-87.5</v>
+      </c>
+      <c r="H68">
+        <v>15</v>
+      </c>
+      <c r="I68">
+        <v>15.35</v>
+      </c>
+      <c r="J68">
+        <v>2.5</v>
+      </c>
+      <c r="K68">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>16</v>
+      </c>
+      <c r="B69">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C69">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D69">
+        <v>-87.5</v>
+      </c>
+      <c r="H69">
+        <v>16</v>
+      </c>
+      <c r="I69">
+        <v>15.35</v>
+      </c>
+      <c r="J69">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K69">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>17</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>2.5</v>
+      </c>
+      <c r="D70">
+        <v>-87.5</v>
+      </c>
+      <c r="H70">
+        <v>17</v>
+      </c>
+      <c r="I70">
+        <v>19</v>
+      </c>
+      <c r="J70">
+        <v>2.5</v>
+      </c>
+      <c r="K70">
+        <v>-44.72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>18</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D71">
+        <v>-87.5</v>
+      </c>
+      <c r="H71">
+        <v>18</v>
+      </c>
+      <c r="I71">
+        <v>19</v>
+      </c>
+      <c r="J71">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K71">
+        <v>-44.72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>2.5</v>
+      </c>
+      <c r="D74">
+        <v>-83.78</v>
+      </c>
+      <c r="F74">
+        <v>418.9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D75">
+        <v>-83.78</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>7.6</v>
+      </c>
+      <c r="K75">
+        <v>-43.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>13.85</v>
+      </c>
+      <c r="C76">
+        <v>2.5</v>
+      </c>
+      <c r="D76">
+        <v>-83.78</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <v>5.7</v>
+      </c>
+      <c r="K76">
+        <v>-43.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>13.85</v>
+      </c>
+      <c r="C77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D77">
+        <v>-83.78</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>8.65</v>
+      </c>
+      <c r="J77">
+        <v>7.6</v>
+      </c>
+      <c r="K77">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>15.2</v>
+      </c>
+      <c r="C78">
+        <v>2.5</v>
+      </c>
+      <c r="D78">
+        <v>-41.89</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>8.65</v>
+      </c>
+      <c r="J78">
+        <v>5.7</v>
+      </c>
+      <c r="K78">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>15.2</v>
+      </c>
+      <c r="C79">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D79">
+        <v>-41.89</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>7.6</v>
+      </c>
+      <c r="K79">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>5.7</v>
+      </c>
+      <c r="D80">
+        <v>-83.78</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>5.7</v>
+      </c>
+      <c r="K80">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>7.6</v>
+      </c>
+      <c r="D81">
+        <v>-83.78</v>
+      </c>
+      <c r="H81">
+        <v>7</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>2.5</v>
+      </c>
+      <c r="K81">
+        <v>-41.89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>13.85</v>
+      </c>
+      <c r="C82">
+        <v>5.7</v>
+      </c>
+      <c r="D82">
+        <v>-83.78</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K82">
+        <v>-41.89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>13.85</v>
+      </c>
+      <c r="C83">
+        <v>7.6</v>
+      </c>
+      <c r="D83">
+        <v>-83.78</v>
+      </c>
+      <c r="H83">
+        <v>9</v>
+      </c>
+      <c r="I83">
+        <v>8.65</v>
+      </c>
+      <c r="J83">
+        <v>2.5</v>
+      </c>
+      <c r="K83">
+        <v>-83.78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>15.2</v>
+      </c>
+      <c r="C84">
+        <v>5.7</v>
+      </c>
+      <c r="D84">
+        <v>-41.89</v>
+      </c>
+      <c r="H84">
+        <v>10</v>
+      </c>
+      <c r="I84">
+        <v>8.65</v>
+      </c>
+      <c r="J84">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K84">
+        <v>-83.78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>15.2</v>
+      </c>
+      <c r="C85">
+        <v>7.6</v>
+      </c>
+      <c r="D85">
+        <v>-41.89</v>
+      </c>
+      <c r="H85">
+        <v>11</v>
+      </c>
+      <c r="I85">
+        <v>10</v>
+      </c>
+      <c r="J85">
+        <v>2.5</v>
+      </c>
+      <c r="K85">
+        <v>-83.78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>13</v>
+      </c>
+      <c r="B86">
+        <v>0.8</v>
+      </c>
+      <c r="C86">
+        <v>2.5</v>
+      </c>
+      <c r="D86">
+        <v>-41.89</v>
+      </c>
+      <c r="H86">
+        <v>12</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K86">
+        <v>-83.78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>0.8</v>
+      </c>
+      <c r="C87">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D87">
+        <v>-41.89</v>
+      </c>
+      <c r="H87">
+        <v>13</v>
+      </c>
+      <c r="I87">
+        <v>14</v>
+      </c>
+      <c r="J87">
+        <v>2.5</v>
+      </c>
+      <c r="K87">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>15</v>
+      </c>
+      <c r="B88">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C88">
+        <v>2.5</v>
+      </c>
+      <c r="D88">
+        <v>-83.78</v>
+      </c>
+      <c r="H88">
+        <v>14</v>
+      </c>
+      <c r="I88">
+        <v>14</v>
+      </c>
+      <c r="J88">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K88">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C89">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D89">
+        <v>-83.78</v>
+      </c>
+      <c r="H89">
+        <v>15</v>
+      </c>
+      <c r="I89">
+        <v>15.35</v>
+      </c>
+      <c r="J89">
+        <v>2.5</v>
+      </c>
+      <c r="K89">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>2.5</v>
+      </c>
+      <c r="D90">
+        <v>-83.78</v>
+      </c>
+      <c r="H90">
+        <v>16</v>
+      </c>
+      <c r="I90">
+        <v>15.35</v>
+      </c>
+      <c r="J90">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K90">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D91">
+        <v>-83.78</v>
+      </c>
+      <c r="H91">
+        <v>17</v>
+      </c>
+      <c r="I91">
+        <v>19</v>
+      </c>
+      <c r="J91">
+        <v>2.5</v>
+      </c>
+      <c r="K91">
+        <v>-44.72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H92">
+        <v>18</v>
+      </c>
+      <c r="I92">
+        <v>19</v>
+      </c>
+      <c r="J92">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K92">
+        <v>-44.72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>2.5</v>
+      </c>
+      <c r="D94">
+        <v>-89.44</v>
+      </c>
+      <c r="F94">
+        <v>447.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D95">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>13.85</v>
+      </c>
+      <c r="C96">
+        <v>2.5</v>
+      </c>
+      <c r="D96">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>13.85</v>
+      </c>
+      <c r="C97">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D97">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <v>15.2</v>
+      </c>
+      <c r="C98">
+        <v>2.5</v>
+      </c>
+      <c r="D98">
+        <v>-44.72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>15.2</v>
+      </c>
+      <c r="C99">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D99">
+        <v>-44.72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>5.7</v>
+      </c>
+      <c r="D100">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>7.6</v>
+      </c>
+      <c r="D101">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>13.85</v>
+      </c>
+      <c r="C102">
+        <v>5.7</v>
+      </c>
+      <c r="D102">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>13.85</v>
+      </c>
+      <c r="C103">
+        <v>7.6</v>
+      </c>
+      <c r="D103">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>11</v>
+      </c>
+      <c r="B104">
+        <v>15.2</v>
+      </c>
+      <c r="C104">
+        <v>5.7</v>
+      </c>
+      <c r="D104">
+        <v>-44.72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>15.2</v>
+      </c>
+      <c r="C105">
+        <v>7.6</v>
+      </c>
+      <c r="D105">
+        <v>-44.72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>13</v>
+      </c>
+      <c r="B106">
+        <v>0.8</v>
+      </c>
+      <c r="C106">
+        <v>2.5</v>
+      </c>
+      <c r="D106">
+        <v>-44.72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="B107">
+        <v>0.8</v>
+      </c>
+      <c r="C107">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D107">
+        <v>-44.72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C108">
+        <v>2.5</v>
+      </c>
+      <c r="D108">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C109">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D109">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>17</v>
+      </c>
+      <c r="B110">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>2.5</v>
+      </c>
+      <c r="D110">
+        <v>-89.44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>18</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D111">
+        <v>-89.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6.9</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+      <c r="D2">
+        <f>-1*$G$7*0.4/2</f>
+        <v>-90</v>
+      </c>
+      <c r="G2">
+        <f>0.2*J2</f>
+        <v>72</v>
+      </c>
+      <c r="H2">
+        <f>0.4*J2</f>
+        <v>144</v>
+      </c>
+      <c r="I2">
+        <f>0.4*J2</f>
+        <v>144</v>
+      </c>
+      <c r="J2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>6.9</v>
+      </c>
+      <c r="C3">
+        <f>C2+1.9</f>
+        <v>3.4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">-1*$G$7*0.4/2</f>
+        <v>-90</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="1">0.2*J3</f>
+        <v>76</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="2">0.4*J3</f>
+        <v>152</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="3">0.4*J3</f>
+        <v>152</v>
+      </c>
+      <c r="J3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>B2-1.4</f>
+        <v>5.5</v>
+      </c>
+      <c r="C4">
+        <f>C2</f>
+        <v>1.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="J4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>B4</f>
+        <v>5.5</v>
+      </c>
+      <c r="C5">
+        <f>C3</f>
+        <v>3.4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>B2-1.4-3.8</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="C6">
+        <f>C2</f>
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <f>-1*$G$7*0.2/2</f>
+        <v>-45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="C7">
+        <f>C3</f>
+        <v>3.4</v>
+      </c>
+      <c r="D7">
+        <f>-1*$G$7*0.2/2</f>
+        <v>-45</v>
+      </c>
+      <c r="G7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>B2</f>
+        <v>6.9</v>
+      </c>
+      <c r="C8">
+        <f>C2+3.3</f>
+        <v>4.8</v>
+      </c>
+      <c r="D8">
+        <f>-1*$G$7*0.4/2</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>B3</f>
+        <v>6.9</v>
+      </c>
+      <c r="C9">
+        <f>C8+1.4</f>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D11" si="4">-1*$G$7*0.4/2</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>B4</f>
+        <v>5.5</v>
+      </c>
+      <c r="C10">
+        <f>C8</f>
+        <v>4.8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f>B2&amp;","&amp;C2&amp;",0"</f>
+        <v>6.9,1.5,0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>5.5</v>
+      </c>
+      <c r="C11">
+        <f>C9</f>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G21" si="5">B3&amp;","&amp;C3&amp;",0"</f>
+        <v>6.9,3.4,0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>B6</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="C12">
+        <f>C10</f>
+        <v>4.8</v>
+      </c>
+      <c r="D12">
+        <f>-1*$G$7*0.2/2</f>
+        <v>-45</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="5"/>
+        <v>5.5,1.5,0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>B7</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="C13">
+        <f>C11</f>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="D13">
+        <f>-1*$G$7*0.2/2</f>
+        <v>-45</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="5"/>
+        <v>5.5,3.4,0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -723,7 +2727,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="5"/>
-        <v>0.3,1.5,0</v>
+        <v>1.7,1.5,0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -745,7 +2749,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="5"/>
-        <v>0.3,3.4,0</v>
+        <v>1.7,3.4,0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -768,7 +2772,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="5"/>
-        <v>5.5,4.8,0</v>
+        <v>6.9,4.8,0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -792,7 +2796,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="5"/>
-        <v>5.5,6.2,0</v>
+        <v>6.9,6.2,0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -816,7 +2820,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="5"/>
-        <v>4.1,4.8,0</v>
+        <v>5.5,4.8,0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -840,7 +2844,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="5"/>
-        <v>4.1,6.2,0</v>
+        <v>5.5,6.2,0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -864,7 +2868,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="5"/>
-        <v>0.3,4.8,0</v>
+        <v>1.7,4.8,0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -887,7 +2891,7 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="5"/>
-        <v>0.3,6.2,0</v>
+        <v>1.7,6.2,0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">

--- a/PlateBridge/静载试验集中力荷载.xlsx
+++ b/PlateBridge/静载试验集中力荷载.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vsProjects\PlateBridge\PlateBridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5DE9216-9C2D-4B3F-A03F-9357F7E3D19A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{922E7BD1-9897-423A-BA3E-D818F622607D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27495" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,8 +404,8 @@
   </sheetPr>
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -723,12 +723,12 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f>B8</f>
-        <v>6.9</v>
+        <f>11+5.5</f>
+        <v>16.5</v>
       </c>
       <c r="C14">
-        <f>C8+3.3</f>
-        <v>8.1</v>
+        <f>C2</f>
+        <v>1.5</v>
       </c>
       <c r="D14">
         <f>-1*$G$7*0.4/2</f>
@@ -747,12 +747,12 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f>B9</f>
-        <v>6.9</v>
+        <f>B14</f>
+        <v>16.5</v>
       </c>
       <c r="C15">
-        <f>C14+1.4</f>
-        <v>9.5</v>
+        <f>C3</f>
+        <v>3.4</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:D17" si="6">-1*$G$7*0.4/2</f>
@@ -771,12 +771,12 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f>B10</f>
-        <v>5.5</v>
+        <f>B14-1.4</f>
+        <v>15.1</v>
       </c>
       <c r="C16">
-        <f>C14</f>
-        <v>8.1</v>
+        <f t="shared" ref="C16:C19" si="7">C4</f>
+        <v>1.5</v>
       </c>
       <c r="D16">
         <f t="shared" si="6"/>
@@ -796,11 +796,11 @@
       </c>
       <c r="B17">
         <f>B16</f>
-        <v>5.5</v>
+        <v>15.1</v>
       </c>
       <c r="C17">
-        <f>C15</f>
-        <v>9.5</v>
+        <f t="shared" si="7"/>
+        <v>3.4</v>
       </c>
       <c r="D17">
         <f t="shared" si="6"/>
@@ -819,12 +819,12 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>B12</f>
-        <v>1.7000000000000002</v>
+        <f>B14-1.4-3.8</f>
+        <v>11.3</v>
       </c>
       <c r="C18">
-        <f>C16</f>
-        <v>8.1</v>
+        <f t="shared" si="7"/>
+        <v>1.5</v>
       </c>
       <c r="D18">
         <f>-1*$G$7*0.2/2</f>
@@ -843,12 +843,12 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>B13</f>
-        <v>1.7000000000000002</v>
+        <f>B18</f>
+        <v>11.3</v>
       </c>
       <c r="C19">
-        <f>C17</f>
-        <v>9.5</v>
+        <f t="shared" si="7"/>
+        <v>3.4</v>
       </c>
       <c r="D19">
         <f>-1*$G$7*0.2/2</f>
@@ -885,8 +885,8 @@
         <v>13</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G28" si="7">B14&amp;","&amp;C14&amp;",0"</f>
-        <v>6.9,8.1,0</v>
+        <f t="shared" ref="G22:G27" si="8">B14&amp;","&amp;C14&amp;",0"</f>
+        <v>16.5,1.5,0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -894,8 +894,8 @@
         <v>14</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="7"/>
-        <v>6.9,9.5,0</v>
+        <f t="shared" si="8"/>
+        <v>16.5,3.4,0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -903,8 +903,8 @@
         <v>15</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="7"/>
-        <v>5.5,8.1,0</v>
+        <f t="shared" si="8"/>
+        <v>15.1,1.5,0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -912,8 +912,8 @@
         <v>16</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="7"/>
-        <v>5.5,9.5,0</v>
+        <f t="shared" si="8"/>
+        <v>15.1,3.4,0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -921,8 +921,8 @@
         <v>17</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="7"/>
-        <v>1.7,8.1,0</v>
+        <f t="shared" si="8"/>
+        <v>11.3,1.5,0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -930,8 +930,8 @@
         <v>18</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="7"/>
-        <v>1.7,9.5,0</v>
+        <f t="shared" si="8"/>
+        <v>11.3,3.4,0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">

--- a/PlateBridge/静载试验集中力荷载.xlsx
+++ b/PlateBridge/静载试验集中力荷载.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vsProjects\PlateBridge\PlateBridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{922E7BD1-9897-423A-BA3E-D818F622607D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84D9F5EF-8133-458B-8954-BF472B41FA6F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27495" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
